--- a/Matriz de Requerimientos.xlsx
+++ b/Matriz de Requerimientos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diseño de Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DiseñoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E81373B-0DD7-46B4-A48A-49E4A93901AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12296EA2-6FAA-4049-A2D7-C2633EAA51C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1065" windowWidth="20730" windowHeight="11040" xr2:uid="{B570F7DC-B375-4BF7-BB47-586FC8379E74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B570F7DC-B375-4BF7-BB47-586FC8379E74}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
   <si>
     <t>Proceso de Negocio</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Coordinar recepción del lote</t>
   </si>
   <si>
-    <t>Coordinación de recepción del lote</t>
-  </si>
-  <si>
     <t>Registrar la hoja de pedidos</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>Confirmar con cliente</t>
   </si>
   <si>
-    <t>Activar Chip</t>
-  </si>
-  <si>
     <t>Generar Declaración Jurada</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>CU12</t>
   </si>
   <si>
-    <t>Gestión de Pedidos</t>
-  </si>
-  <si>
     <t>Buscar Motorizados</t>
   </si>
   <si>
@@ -253,6 +244,69 @@
   </si>
   <si>
     <t>CU16</t>
+  </si>
+  <si>
+    <t>Coordinación de recepción del lote de pedidos</t>
+  </si>
+  <si>
+    <t>Confirmar entrega del pedido</t>
+  </si>
+  <si>
+    <t>Gestionar seguimiento de Pedidos</t>
+  </si>
+  <si>
+    <t>CU17</t>
+  </si>
+  <si>
+    <t>Ingresar al Sistema</t>
+  </si>
+  <si>
+    <t>Modificar Contraseña</t>
+  </si>
+  <si>
+    <t>Generar Hoja de Retorno</t>
+  </si>
+  <si>
+    <t>Registrar Motorizado</t>
+  </si>
+  <si>
+    <t>CU18</t>
+  </si>
+  <si>
+    <t>CU19</t>
+  </si>
+  <si>
+    <t>CU20</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>Documentacion de Devoluciones</t>
+  </si>
+  <si>
+    <t>Registrar Motorizados</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>Autenticación de Usuario</t>
+  </si>
+  <si>
+    <t>Gestion de Credenciales</t>
+  </si>
+  <si>
+    <t>Coordinar de recepción del lote de pedidos</t>
   </si>
 </sst>
 </file>
@@ -302,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -387,21 +441,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -457,21 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -503,6 +527,56 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -512,58 +586,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,23 +637,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,6 +649,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2E53D5-1AB3-445F-A6C8-DF01F34786C1}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,24 +988,24 @@
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
     <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -951,14 +1017,14 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
@@ -966,434 +1032,524 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="17"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="8"/>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="8"/>
+      <c r="G5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="8"/>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="17"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="8"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="8"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="3" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="17" t="s">
+      <c r="E17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="F17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="11" t="s">
+      <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="22" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="9"/>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A10:A22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H10:H15"/>
+  <mergeCells count="26">
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A10:A24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A1:I1"/>
@@ -1405,6 +1561,17 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="G5:G7"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H10:H15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
